--- a/MapMySections_EntrantData.xlsx
+++ b/MapMySections_EntrantData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alleninstitute-my.sharepoint.com/personal/jeremym_alleninstitute_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rachel.hostetler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="343" documentId="8_{6FB25721-6482-41D0-829C-A2B68F56062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7979BA22-86A0-42E3-8CC2-62380FE19C7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A7A901-EF5A-49D2-9BE7-74BC986D2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="-765" windowWidth="22710" windowHeight="15165" xr2:uid="{1391F2D3-30BB-4BFA-A3C6-76420EB4F391}"/>
+    <workbookView xWindow="22932" yWindow="1212" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{1391F2D3-30BB-4BFA-A3C6-76420EB4F391}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="2699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="2698">
   <si>
     <t>MapMySectionsID</t>
   </si>
@@ -7101,9 +7101,6 @@
   </si>
   <si>
     <t>Before submitting this file, rename the file as "MapMySections_Submission_[ENTRANT_NAME].xlsx".  Files submitted with the name "MapMySections_EntrantData.xlsx" will be ignored.</t>
-  </si>
-  <si>
-    <t>If you have any questions, click here to e-mail Rachel Hosteler.</t>
   </si>
   <si>
     <t>This sheet lists the 396 training sets included in the challenge, including links to the data and both qualitative and quantitative assessments of which cell types the genetic tools labels.</t>
@@ -8436,7 +8433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8532,6 +8529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8869,28 +8867,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51672DEF-8F57-4438-AADA-9D50CC4EE2F7}">
   <dimension ref="B1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.5859375" customWidth="1"/>
+    <col min="2" max="2" width="20.41015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.41015625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" ht="18.350000000000001" x14ac:dyDescent="0.65">
       <c r="B1" s="32" t="s">
         <v>2328</v>
       </c>
       <c r="C1" s="32"/>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>2339</v>
       </c>
@@ -8898,7 +8896,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="71.7" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
         <v>2337</v>
       </c>
@@ -8906,8 +8904,8 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="2:3" ht="43.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="24" t="s">
         <v>2347</v>
       </c>
@@ -8915,20 +8913,20 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="8" spans="2:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="35" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C8" s="36"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B10" s="33" t="s">
         <v>2338</v>
       </c>
       <c r="C10" s="34"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B11" s="16" t="s">
         <v>2333</v>
       </c>
@@ -8936,7 +8934,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B12" s="15" t="s">
         <v>2332</v>
       </c>
@@ -8944,7 +8942,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.5">
       <c r="B13" s="15" t="s">
         <v>2331</v>
       </c>
@@ -8952,20 +8950,20 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="28.7" x14ac:dyDescent="0.5">
       <c r="B14" s="15" t="s">
         <v>2335</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="43" x14ac:dyDescent="0.5">
       <c r="B15" s="21" t="s">
         <v>2336</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
   </sheetData>
@@ -8986,197 +8984,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C39B162-FCE9-4030-91AE-C4124C932222}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="96.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.703125" customWidth="1"/>
+    <col min="3" max="3" width="96.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>2322</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" s="37" t="s">
         <v>2341</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
-        <v>2275</v>
+        <v>2317</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2318</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" s="13">
         <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A7" s="13">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A9" s="13">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>2344</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="39" t="s">
         <v>2342</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B15" s="4" t="s">
         <v>2323</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B16" s="4" t="s">
         <v>2325</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B17" s="4" t="s">
         <v>2324</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>2345</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="39" t="s">
         <v>2343</v>
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B23" s="4" t="s">
         <v>2319</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B24" s="4" t="s">
         <v>2321</v>
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B25" s="4" t="s">
         <v>2320</v>
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="B26" s="3"/>
       <c r="C26" s="23"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="39" t="s">
         <v>2346</v>
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
-        <v>2317</v>
+        <v>2275</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>2327</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="13">
         <v>1</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="13">
         <v>2</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="13">
         <v>3</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="13">
         <v>4</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="13">
         <v>5</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="38" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="35" t="s">
-        <v>2349</v>
+        <v>2697</v>
       </c>
       <c r="C38" s="36"/>
     </row>
@@ -9204,14 +9202,14 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="95.140625" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="41.41015625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="95.1171875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="9.1171875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>2278</v>
       </c>
@@ -9219,7 +9217,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9225,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -9243,7 +9241,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
         <v>2277</v>
       </c>
@@ -9251,7 +9249,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -9259,7 +9257,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>681</v>
       </c>
@@ -9267,7 +9265,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
@@ -9275,7 +9273,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="86" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
@@ -9283,7 +9281,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="57.35" x14ac:dyDescent="0.5">
       <c r="A10" s="12" t="s">
         <v>2315</v>
       </c>
@@ -9291,7 +9289,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -9299,7 +9297,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -9307,7 +9305,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
@@ -9315,7 +9313,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
@@ -9323,7 +9321,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
@@ -9331,7 +9329,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -9339,7 +9337,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
@@ -9347,7 +9345,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -9355,7 +9353,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
@@ -9363,7 +9361,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
@@ -9379,7 +9377,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
@@ -9387,7 +9385,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
@@ -9395,7 +9393,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -9403,7 +9401,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>21</v>
       </c>
@@ -9419,7 +9417,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>22</v>
       </c>
@@ -9427,7 +9425,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>23</v>
       </c>
@@ -9435,7 +9433,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="10" t="s">
         <v>24</v>
       </c>
@@ -9443,7 +9441,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
@@ -9451,7 +9449,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
@@ -9459,7 +9457,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
@@ -9467,7 +9465,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="10" t="s">
         <v>28</v>
       </c>
@@ -9475,7 +9473,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="10" t="s">
         <v>29</v>
       </c>
@@ -9483,7 +9481,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -9491,7 +9489,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
@@ -9499,7 +9497,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
@@ -9518,50 +9516,50 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="17.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.703125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.87890625" style="28" customWidth="1"/>
     <col min="5" max="5" width="21" style="28" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="28.29296875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="21.87890625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="28.1171875" style="28" customWidth="1"/>
     <col min="9" max="9" width="2" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1171875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.29296875" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.703125" style="28" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="28"/>
+    <col min="23" max="23" width="16.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.1171875" style="28"/>
     <col min="28" max="28" width="8" style="28" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.1171875" style="28" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5859375" style="28" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="28"/>
+    <col min="37" max="16384" width="9.1171875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9671,9 +9669,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -9684,7 +9682,7 @@
       <c r="D2" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="41" t="s">
         <v>1837</v>
       </c>
       <c r="F2" s="28" t="s">
@@ -9700,9 +9698,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A3" s="28" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -9729,9 +9727,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A4" s="28" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -9758,9 +9756,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A5" s="28" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -9868,9 +9866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A6" s="28" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -9897,9 +9895,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A7" s="28" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -10007,9 +10005,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A8" s="28" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -10117,9 +10115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="28" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -10146,9 +10144,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A10" s="28" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
@@ -10256,9 +10254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="28" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
@@ -10285,9 +10283,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="28" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>355</v>
@@ -10392,9 +10390,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="28" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -10502,9 +10500,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A14" s="28" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -10612,9 +10610,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A15" s="28" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
@@ -10622,7 +10620,7 @@
       <c r="C15" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="41" t="s">
         <v>1318</v>
       </c>
       <c r="E15" s="28" t="s">
@@ -10722,9 +10720,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A16" s="28" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -10751,9 +10749,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A17" s="28" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
@@ -10780,9 +10778,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A18" s="28" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
@@ -10809,9 +10807,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A19" s="28" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>355</v>
@@ -10916,9 +10914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A20" s="28" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -11026,9 +11024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A21" s="28" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
@@ -11136,9 +11134,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A22" s="28" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -11246,9 +11244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A23" s="28" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>33</v>
@@ -11356,9 +11354,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A24" s="28" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -11385,9 +11383,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A25" s="28" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -11414,9 +11412,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A26" s="28" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>355</v>
@@ -11521,9 +11519,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A27" s="28" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>355</v>
@@ -11547,9 +11545,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A28" s="28" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>33</v>
@@ -11576,9 +11574,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A29" s="28" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
@@ -11686,9 +11684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A30" s="28" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -11796,9 +11794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A31" s="28" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -11906,9 +11904,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A32" s="28" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
@@ -11935,9 +11933,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A33" s="28" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -12045,9 +12043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A34" s="28" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -12074,9 +12072,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A35" s="28" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -12103,9 +12101,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A36" s="28" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
@@ -12213,9 +12211,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A37" s="28" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>355</v>
@@ -12320,9 +12318,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A38" s="28" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>33</v>
@@ -12349,9 +12347,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A39" s="28" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>33</v>
@@ -12378,9 +12376,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A40" s="28" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>33</v>
@@ -12488,9 +12486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A41" s="28" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>33</v>
@@ -12598,9 +12596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A42" s="28" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>355</v>
@@ -12624,9 +12622,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A43" s="28" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
@@ -12734,9 +12732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A44" s="28" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>33</v>
@@ -12763,9 +12761,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A45" s="28" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>355</v>
@@ -12789,9 +12787,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A46" s="28" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
@@ -12818,9 +12816,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A47" s="28" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
@@ -12928,9 +12926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A48" s="28" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
@@ -13038,9 +13036,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A49" s="28" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>33</v>
@@ -13148,9 +13146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A50" s="28" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>355</v>
@@ -13255,9 +13253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A51" s="28" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>33</v>
@@ -13365,9 +13363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A52" s="28" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>355</v>
@@ -13391,9 +13389,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A53" s="28" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>33</v>
@@ -13420,9 +13418,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A54" s="28" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>33</v>
@@ -13530,9 +13528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A55" s="28" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
@@ -13559,9 +13557,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A56" s="28" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
@@ -13669,9 +13667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A57" s="28" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>355</v>
@@ -13776,9 +13774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A58" s="28" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>355</v>
@@ -13802,9 +13800,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A59" s="28" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>33</v>
@@ -13912,9 +13910,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A60" s="28" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>33</v>
@@ -13941,9 +13939,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A61" s="28" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>33</v>
@@ -14051,9 +14049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A62" s="28" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>33</v>
@@ -14161,9 +14159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A63" s="28" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>355</v>
@@ -14187,9 +14185,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A64" s="28" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>33</v>
@@ -14297,9 +14295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A65" s="28" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>33</v>
@@ -14407,9 +14405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A66" s="28" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>33</v>
@@ -14436,9 +14434,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A67" s="28" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>355</v>
@@ -14543,9 +14541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A68" s="28" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>33</v>
@@ -14653,9 +14651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A69" s="28" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>33</v>
@@ -14763,9 +14761,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A70" s="28" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>33</v>
@@ -14792,9 +14790,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A71" s="28" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>355</v>
@@ -14818,9 +14816,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A72" s="28" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>33</v>
@@ -14928,9 +14926,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A73" s="28" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>355</v>
@@ -14954,9 +14952,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A74" s="28" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>33</v>
@@ -15064,9 +15062,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A75" s="28" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>33</v>
@@ -15174,9 +15172,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A76" s="28" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>355</v>
@@ -15200,9 +15198,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A77" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>33</v>
@@ -15310,9 +15308,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A78" s="28" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -15420,9 +15418,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A79" s="28" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>355</v>
@@ -15527,9 +15525,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A80" s="28" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>33</v>
@@ -15637,9 +15635,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A81" s="28" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>33</v>
@@ -15747,9 +15745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A82" s="28" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>355</v>
@@ -15854,9 +15852,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A83" s="28" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>33</v>
@@ -15964,9 +15962,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A84" s="28" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>33</v>
@@ -15993,9 +15991,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A85" s="28" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>33</v>
@@ -16022,9 +16020,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A86" s="28" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>33</v>
@@ -16051,9 +16049,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A87" s="28" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>33</v>
@@ -16161,9 +16159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A88" s="28" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>33</v>
@@ -16190,9 +16188,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A89" s="28" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>33</v>
@@ -16219,9 +16217,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A90" s="28" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -16329,9 +16327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A91" s="28" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>33</v>
@@ -16358,9 +16356,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A92" s="28" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>33</v>
@@ -16468,9 +16466,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A93" s="28" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>33</v>
@@ -16497,9 +16495,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A94" s="28" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>33</v>
@@ -16607,9 +16605,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A95" s="28" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>33</v>
@@ -16636,9 +16634,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A96" s="28" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>33</v>
@@ -16746,9 +16744,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A97" s="28" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>33</v>
@@ -16775,9 +16773,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A98" s="28" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>33</v>
@@ -16804,9 +16802,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A99" s="28" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>33</v>
@@ -16833,9 +16831,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A100" s="28" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>355</v>
@@ -16940,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A101" s="28" t="s">
         <v>682</v>
       </c>
@@ -17047,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A102" s="28" t="s">
         <v>683</v>
       </c>
@@ -17157,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A103" s="28" t="s">
         <v>684</v>
       </c>
@@ -17186,7 +17184,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A104" s="28" t="s">
         <v>685</v>
       </c>
@@ -17215,7 +17213,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A105" s="28" t="s">
         <v>686</v>
       </c>
@@ -17325,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A106" s="28" t="s">
         <v>687</v>
       </c>
@@ -17354,7 +17352,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A107" s="28" t="s">
         <v>688</v>
       </c>
@@ -17383,7 +17381,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A108" s="28" t="s">
         <v>689</v>
       </c>
@@ -17490,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A109" s="28" t="s">
         <v>690</v>
       </c>
@@ -17519,7 +17517,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A110" s="28" t="s">
         <v>691</v>
       </c>
@@ -17629,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A111" s="28" t="s">
         <v>692</v>
       </c>
@@ -17739,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A112" s="28" t="s">
         <v>693</v>
       </c>
@@ -17849,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A113" s="28" t="s">
         <v>694</v>
       </c>
@@ -17878,7 +17876,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A114" s="28" t="s">
         <v>695</v>
       </c>
@@ -17907,7 +17905,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A115" s="28" t="s">
         <v>696</v>
       </c>
@@ -17933,7 +17931,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A116" s="28" t="s">
         <v>697</v>
       </c>
@@ -18040,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A117" s="28" t="s">
         <v>698</v>
       </c>
@@ -18069,7 +18067,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A118" s="28" t="s">
         <v>699</v>
       </c>
@@ -18095,7 +18093,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A119" s="28" t="s">
         <v>700</v>
       </c>
@@ -18205,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A120" s="28" t="s">
         <v>701</v>
       </c>
@@ -18234,7 +18232,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A121" s="28" t="s">
         <v>702</v>
       </c>
@@ -18344,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A122" s="28" t="s">
         <v>703</v>
       </c>
@@ -18454,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A123" s="28" t="s">
         <v>704</v>
       </c>
@@ -18564,7 +18562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A124" s="28" t="s">
         <v>705</v>
       </c>
@@ -18674,7 +18672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A125" s="28" t="s">
         <v>706</v>
       </c>
@@ -18784,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A126" s="28" t="s">
         <v>707</v>
       </c>
@@ -18813,7 +18811,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A127" s="28" t="s">
         <v>708</v>
       </c>
@@ -18842,7 +18840,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A128" s="28" t="s">
         <v>709</v>
       </c>
@@ -18871,7 +18869,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A129" s="28" t="s">
         <v>710</v>
       </c>
@@ -18900,7 +18898,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A130" s="28" t="s">
         <v>711</v>
       </c>
@@ -19010,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A131" s="28" t="s">
         <v>712</v>
       </c>
@@ -19120,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A132" s="28" t="s">
         <v>713</v>
       </c>
@@ -19230,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A133" s="28" t="s">
         <v>714</v>
       </c>
@@ -19259,7 +19257,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A134" s="28" t="s">
         <v>715</v>
       </c>
@@ -19369,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A135" s="28" t="s">
         <v>716</v>
       </c>
@@ -19395,7 +19393,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A136" s="28" t="s">
         <v>717</v>
       </c>
@@ -19505,7 +19503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A137" s="28" t="s">
         <v>718</v>
       </c>
@@ -19615,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A138" s="28" t="s">
         <v>719</v>
       </c>
@@ -19725,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A139" s="28" t="s">
         <v>720</v>
       </c>
@@ -19835,7 +19833,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A140" s="28" t="s">
         <v>721</v>
       </c>
@@ -19945,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A141" s="28" t="s">
         <v>722</v>
       </c>
@@ -20055,7 +20053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A142" s="28" t="s">
         <v>723</v>
       </c>
@@ -20081,7 +20079,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A143" s="28" t="s">
         <v>724</v>
       </c>
@@ -20110,7 +20108,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A144" s="28" t="s">
         <v>725</v>
       </c>
@@ -20139,7 +20137,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A145" s="28" t="s">
         <v>726</v>
       </c>
@@ -20249,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A146" s="28" t="s">
         <v>727</v>
       </c>
@@ -20359,7 +20357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A147" s="28" t="s">
         <v>728</v>
       </c>
@@ -20469,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A148" s="28" t="s">
         <v>729</v>
       </c>
@@ -20579,7 +20577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A149" s="28" t="s">
         <v>730</v>
       </c>
@@ -20689,7 +20687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A150" s="28" t="s">
         <v>731</v>
       </c>
@@ -20715,7 +20713,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A151" s="28" t="s">
         <v>732</v>
       </c>
@@ -20744,7 +20742,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A152" s="28" t="s">
         <v>733</v>
       </c>
@@ -20854,7 +20852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A153" s="28" t="s">
         <v>734</v>
       </c>
@@ -20883,7 +20881,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A154" s="28" t="s">
         <v>735</v>
       </c>
@@ -20993,7 +20991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A155" s="28" t="s">
         <v>736</v>
       </c>
@@ -21022,7 +21020,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A156" s="28" t="s">
         <v>737</v>
       </c>
@@ -21051,7 +21049,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A157" s="28" t="s">
         <v>738</v>
       </c>
@@ -21080,7 +21078,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A158" s="28" t="s">
         <v>739</v>
       </c>
@@ -21190,7 +21188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A159" s="28" t="s">
         <v>740</v>
       </c>
@@ -21300,7 +21298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A160" s="28" t="s">
         <v>742</v>
       </c>
@@ -21329,7 +21327,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A161" s="28" t="s">
         <v>743</v>
       </c>
@@ -21358,7 +21356,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A162" s="28" t="s">
         <v>744</v>
       </c>
@@ -21384,7 +21382,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A163" s="28" t="s">
         <v>745</v>
       </c>
@@ -21413,7 +21411,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A164" s="28" t="s">
         <v>746</v>
       </c>
@@ -21439,7 +21437,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A165" s="28" t="s">
         <v>747</v>
       </c>
@@ -21549,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A166" s="28" t="s">
         <v>748</v>
       </c>
@@ -21578,7 +21576,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A167" s="28" t="s">
         <v>749</v>
       </c>
@@ -21607,7 +21605,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A168" s="28" t="s">
         <v>750</v>
       </c>
@@ -21717,7 +21715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A169" s="28" t="s">
         <v>751</v>
       </c>
@@ -21827,7 +21825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A170" s="28" t="s">
         <v>752</v>
       </c>
@@ -21856,7 +21854,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A171" s="28" t="s">
         <v>753</v>
       </c>
@@ -21885,7 +21883,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A172" s="28" t="s">
         <v>754</v>
       </c>
@@ -21914,7 +21912,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A173" s="28" t="s">
         <v>755</v>
       </c>
@@ -21940,7 +21938,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A174" s="28" t="s">
         <v>756</v>
       </c>
@@ -21969,7 +21967,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A175" s="28" t="s">
         <v>757</v>
       </c>
@@ -21998,7 +21996,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A176" s="28" t="s">
         <v>758</v>
       </c>
@@ -22108,7 +22106,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A177" s="28" t="s">
         <v>759</v>
       </c>
@@ -22134,7 +22132,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A178" s="28" t="s">
         <v>760</v>
       </c>
@@ -22244,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A179" s="28" t="s">
         <v>761</v>
       </c>
@@ -22273,7 +22271,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A180" s="28" t="s">
         <v>762</v>
       </c>
@@ -22302,7 +22300,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A181" s="28" t="s">
         <v>763</v>
       </c>
@@ -22328,7 +22326,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A182" s="28" t="s">
         <v>764</v>
       </c>
@@ -22357,7 +22355,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A183" s="28" t="s">
         <v>765</v>
       </c>
@@ -22467,7 +22465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A184" s="28" t="s">
         <v>766</v>
       </c>
@@ -22577,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A185" s="28" t="s">
         <v>767</v>
       </c>
@@ -22606,7 +22604,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A186" s="28" t="s">
         <v>768</v>
       </c>
@@ -22716,7 +22714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A187" s="28" t="s">
         <v>769</v>
       </c>
@@ -22826,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A188" s="28" t="s">
         <v>770</v>
       </c>
@@ -22855,7 +22853,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A189" s="28" t="s">
         <v>771</v>
       </c>
@@ -22965,7 +22963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A190" s="28" t="s">
         <v>772</v>
       </c>
@@ -22991,7 +22989,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A191" s="28" t="s">
         <v>773</v>
       </c>
@@ -23020,7 +23018,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A192" s="28" t="s">
         <v>774</v>
       </c>
@@ -23130,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A193" s="28" t="s">
         <v>775</v>
       </c>
@@ -23159,7 +23157,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A194" s="28" t="s">
         <v>777</v>
       </c>
@@ -23269,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A195" s="28" t="s">
         <v>778</v>
       </c>
@@ -23295,7 +23293,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A196" s="28" t="s">
         <v>779</v>
       </c>
@@ -23324,7 +23322,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A197" s="28" t="s">
         <v>780</v>
       </c>
@@ -23434,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A198" s="28" t="s">
         <v>781</v>
       </c>
@@ -23463,7 +23461,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A199" s="28" t="s">
         <v>782</v>
       </c>
@@ -23573,7 +23571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A200" s="28" t="s">
         <v>783</v>
       </c>
@@ -23683,7 +23681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A201" s="28" t="s">
         <v>784</v>
       </c>
@@ -23793,7 +23791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A202" s="28" t="s">
         <v>785</v>
       </c>
@@ -23822,7 +23820,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A203" s="28" t="s">
         <v>786</v>
       </c>
@@ -23932,7 +23930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A204" s="28" t="s">
         <v>787</v>
       </c>
@@ -23958,7 +23956,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A205" s="28" t="s">
         <v>788</v>
       </c>
@@ -24068,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A206" s="28" t="s">
         <v>789</v>
       </c>
@@ -24097,7 +24095,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A207" s="28" t="s">
         <v>790</v>
       </c>
@@ -24126,7 +24124,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A208" s="28" t="s">
         <v>791</v>
       </c>
@@ -24155,7 +24153,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A209" s="28" t="s">
         <v>792</v>
       </c>
@@ -24184,7 +24182,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A210" s="28" t="s">
         <v>793</v>
       </c>
@@ -24213,7 +24211,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A211" s="28" t="s">
         <v>794</v>
       </c>
@@ -24323,7 +24321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A212" s="28" t="s">
         <v>795</v>
       </c>
@@ -24433,7 +24431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A213" s="28" t="s">
         <v>796</v>
       </c>
@@ -24459,7 +24457,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A214" s="28" t="s">
         <v>797</v>
       </c>
@@ -24569,7 +24567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A215" s="28" t="s">
         <v>798</v>
       </c>
@@ -24676,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A216" s="28" t="s">
         <v>799</v>
       </c>
@@ -24705,7 +24703,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A217" s="28" t="s">
         <v>800</v>
       </c>
@@ -24734,7 +24732,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A218" s="28" t="s">
         <v>801</v>
       </c>
@@ -24763,7 +24761,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A219" s="28" t="s">
         <v>802</v>
       </c>
@@ -24873,7 +24871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A220" s="28" t="s">
         <v>803</v>
       </c>
@@ -24983,7 +24981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A221" s="28" t="s">
         <v>804</v>
       </c>
@@ -25093,7 +25091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A222" s="28" t="s">
         <v>805</v>
       </c>
@@ -25203,7 +25201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A223" s="28" t="s">
         <v>806</v>
       </c>
@@ -25232,7 +25230,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A224" s="28" t="s">
         <v>807</v>
       </c>
@@ -25261,7 +25259,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A225" s="28" t="s">
         <v>808</v>
       </c>
@@ -25371,7 +25369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A226" s="28" t="s">
         <v>809</v>
       </c>
@@ -25400,7 +25398,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A227" s="28" t="s">
         <v>810</v>
       </c>
@@ -25510,7 +25508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A228" s="28" t="s">
         <v>811</v>
       </c>
@@ -25617,7 +25615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A229" s="28" t="s">
         <v>812</v>
       </c>
@@ -25646,7 +25644,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A230" s="28" t="s">
         <v>813</v>
       </c>
@@ -25756,7 +25754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A231" s="28" t="s">
         <v>814</v>
       </c>
@@ -25785,7 +25783,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A232" s="28" t="s">
         <v>815</v>
       </c>
@@ -25814,7 +25812,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A233" s="28" t="s">
         <v>816</v>
       </c>
@@ -25924,7 +25922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A234" s="28" t="s">
         <v>817</v>
       </c>
@@ -25953,7 +25951,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A235" s="28" t="s">
         <v>818</v>
       </c>
@@ -25982,7 +25980,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A236" s="28" t="s">
         <v>819</v>
       </c>
@@ -26011,7 +26009,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A237" s="28" t="s">
         <v>820</v>
       </c>
@@ -26040,7 +26038,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A238" s="28" t="s">
         <v>821</v>
       </c>
@@ -26066,7 +26064,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A239" s="28" t="s">
         <v>822</v>
       </c>
@@ -26095,7 +26093,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A240" s="28" t="s">
         <v>823</v>
       </c>
@@ -26121,7 +26119,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A241" s="28" t="s">
         <v>824</v>
       </c>
@@ -26150,7 +26148,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A242" s="28" t="s">
         <v>825</v>
       </c>
@@ -26260,7 +26258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A243" s="28" t="s">
         <v>826</v>
       </c>
@@ -26370,7 +26368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A244" s="28" t="s">
         <v>827</v>
       </c>
@@ -26480,7 +26478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A245" s="28" t="s">
         <v>828</v>
       </c>
@@ -26587,7 +26585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A246" s="28" t="s">
         <v>829</v>
       </c>
@@ -26616,7 +26614,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A247" s="28" t="s">
         <v>830</v>
       </c>
@@ -26645,7 +26643,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A248" s="28" t="s">
         <v>831</v>
       </c>
@@ -26755,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A249" s="28" t="s">
         <v>832</v>
       </c>
@@ -26865,9 +26863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A250" s="28" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>33</v>
@@ -26975,9 +26973,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A251" s="28" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>355</v>
@@ -27082,9 +27080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A252" s="28" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>33</v>
@@ -27192,9 +27190,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A253" s="28" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>33</v>
@@ -27302,9 +27300,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A254" s="28" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>33</v>
@@ -27412,9 +27410,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A255" s="28" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>355</v>
@@ -27519,9 +27517,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A256" s="28" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>33</v>
@@ -27548,9 +27546,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A257" s="28" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>33</v>
@@ -27658,9 +27656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A258" s="28" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>33</v>
@@ -27768,9 +27766,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A259" s="28" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>33</v>
@@ -27878,9 +27876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A260" s="28" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>33</v>
@@ -27907,9 +27905,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A261" s="28" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>33</v>
@@ -28017,9 +28015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A262" s="28" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>33</v>
@@ -28127,9 +28125,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A263" s="28" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>33</v>
@@ -28156,9 +28154,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A264" s="28" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>33</v>
@@ -28266,9 +28264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A265" s="28" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>33</v>
@@ -28295,9 +28293,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A266" s="28" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>33</v>
@@ -28324,9 +28322,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A267" s="28" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>355</v>
@@ -28350,9 +28348,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="268" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A268" s="28" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>33</v>
@@ -28460,9 +28458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A269" s="28" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>355</v>
@@ -28567,9 +28565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A270" s="28" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>33</v>
@@ -28677,9 +28675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A271" s="28" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>33</v>
@@ -28706,9 +28704,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A272" s="28" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>33</v>
@@ -28735,9 +28733,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A273" s="28" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>355</v>
@@ -28842,9 +28840,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A274" s="28" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>33</v>
@@ -28871,9 +28869,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A275" s="28" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>33</v>
@@ -28981,9 +28979,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A276" s="28" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>33</v>
@@ -29091,9 +29089,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A277" s="28" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>33</v>
@@ -29120,9 +29118,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A278" s="28" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>33</v>
@@ -29149,9 +29147,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A279" s="28" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>33</v>
@@ -29178,9 +29176,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A280" s="28" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>33</v>
@@ -29288,9 +29286,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A281" s="28" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>33</v>
@@ -29317,9 +29315,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A282" s="28" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>355</v>
@@ -29424,9 +29422,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A283" s="28" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>33</v>
@@ -29534,9 +29532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A284" s="28" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>33</v>
@@ -29644,9 +29642,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A285" s="28" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>33</v>
@@ -29673,9 +29671,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A286" s="28" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>33</v>
@@ -29783,9 +29781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A287" s="28" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>33</v>
@@ -29812,9 +29810,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A288" s="28" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>33</v>
@@ -29922,9 +29920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A289" s="28" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>33</v>
@@ -29951,9 +29949,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A290" s="28" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>33</v>
@@ -29980,9 +29978,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A291" s="28" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>33</v>
@@ -30090,9 +30088,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A292" s="28" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>33</v>
@@ -30200,9 +30198,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A293" s="28" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>33</v>
@@ -30310,9 +30308,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A294" s="28" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>33</v>
@@ -30339,9 +30337,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A295" s="28" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>33</v>
@@ -30449,9 +30447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A296" s="28" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>355</v>
@@ -30475,9 +30473,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A297" s="28" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>33</v>
@@ -30585,9 +30583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A298" s="28" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>33</v>
@@ -30614,9 +30612,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A299" s="28" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>33</v>
@@ -30643,9 +30641,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A300" s="28" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>33</v>
@@ -30753,9 +30751,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A301" s="28" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>33</v>
@@ -30863,9 +30861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A302" s="28" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>355</v>
@@ -30889,9 +30887,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A303" s="28" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>33</v>
@@ -30999,9 +30997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A304" s="28" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>355</v>
@@ -31106,9 +31104,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A305" s="28" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>33</v>
@@ -31135,9 +31133,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="306" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A306" s="28" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>33</v>
@@ -31245,9 +31243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A307" s="28" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>33</v>
@@ -31274,9 +31272,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="308" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A308" s="28" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>33</v>
@@ -31303,9 +31301,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="309" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A309" s="28" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>33</v>
@@ -31332,9 +31330,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="310" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A310" s="28" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>33</v>
@@ -31442,9 +31440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A311" s="28" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>33</v>
@@ -31552,9 +31550,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A312" s="28" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>33</v>
@@ -31581,9 +31579,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="313" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A313" s="28" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>33</v>
@@ -31610,9 +31608,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="314" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A314" s="28" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>33</v>
@@ -31639,9 +31637,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="315" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A315" s="28" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>33</v>
@@ -31749,9 +31747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A316" s="28" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>33</v>
@@ -31778,9 +31776,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A317" s="28" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>33</v>
@@ -31888,9 +31886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A318" s="28" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>33</v>
@@ -31998,9 +31996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A319" s="28" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>355</v>
@@ -32105,9 +32103,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A320" s="28" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>33</v>
@@ -32134,9 +32132,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="321" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A321" s="28" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>33</v>
@@ -32244,9 +32242,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A322" s="28" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>33</v>
@@ -32354,9 +32352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A323" s="28" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>33</v>
@@ -32383,9 +32381,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="324" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A324" s="28" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>33</v>
@@ -32493,9 +32491,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A325" s="28" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>33</v>
@@ -32603,9 +32601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A326" s="28" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>33</v>
@@ -32713,9 +32711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A327" s="28" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>33</v>
@@ -32823,9 +32821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A328" s="28" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>355</v>
@@ -32849,9 +32847,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="329" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A329" s="28" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>33</v>
@@ -32878,9 +32876,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="330" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A330" s="28" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>33</v>
@@ -32988,9 +32986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A331" s="28" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>33</v>
@@ -33098,9 +33096,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A332" s="28" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>355</v>
@@ -33124,9 +33122,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="333" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A333" s="28" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>33</v>
@@ -33153,9 +33151,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="334" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A334" s="28" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>33</v>
@@ -33182,9 +33180,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="335" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A335" s="28" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>355</v>
@@ -33208,9 +33206,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="336" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A336" s="28" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>33</v>
@@ -33318,9 +33316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A337" s="28" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>33</v>
@@ -33347,9 +33345,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="338" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A338" s="28" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>33</v>
@@ -33457,9 +33455,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A339" s="28" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>33</v>
@@ -33486,9 +33484,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="340" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A340" s="28" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>33</v>
@@ -33596,9 +33594,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A341" s="28" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>33</v>
@@ -33625,9 +33623,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="342" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A342" s="28" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>33</v>
@@ -33654,9 +33652,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="343" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A343" s="28" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>355</v>
@@ -33680,9 +33678,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="344" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A344" s="28" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>33</v>
@@ -33709,9 +33707,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="345" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A345" s="28" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>33</v>
@@ -33819,9 +33817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A346" s="28" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>33</v>
@@ -33929,9 +33927,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A347" s="28" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>33</v>
@@ -33958,9 +33956,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="348" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A348" s="28" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>33</v>
@@ -34068,9 +34066,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A349" s="28" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>33</v>
@@ -34178,9 +34176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A350" s="28" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>33</v>
@@ -34288,9 +34286,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A351" s="28" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>33</v>
@@ -34317,9 +34315,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="352" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A352" s="28" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>33</v>
@@ -34346,9 +34344,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="353" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A353" s="28" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>33</v>
@@ -34375,9 +34373,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="354" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A354" s="28" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>33</v>
@@ -34485,9 +34483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A355" s="28" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>33</v>
@@ -34595,9 +34593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A356" s="28" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>33</v>
@@ -34624,9 +34622,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="357" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A357" s="28" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>33</v>
@@ -34734,9 +34732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A358" s="28" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>33</v>
@@ -34844,9 +34842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A359" s="28" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>355</v>
@@ -34870,9 +34868,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="360" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A360" s="28" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>33</v>
@@ -34980,9 +34978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A361" s="28" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>33</v>
@@ -35090,9 +35088,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A362" s="28" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>33</v>
@@ -35200,9 +35198,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A363" s="28" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>33</v>
@@ -35229,9 +35227,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="364" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A364" s="28" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>33</v>
@@ -35258,9 +35256,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="365" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A365" s="28" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>33</v>
@@ -35287,9 +35285,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="366" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A366" s="28" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>33</v>
@@ -35397,9 +35395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A367" s="28" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>33</v>
@@ -35426,9 +35424,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="368" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A368" s="28" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>33</v>
@@ -35455,9 +35453,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="369" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A369" s="28" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>33</v>
@@ -35565,9 +35563,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A370" s="28" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>355</v>
@@ -35591,9 +35589,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="371" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A371" s="28" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>33</v>
@@ -35701,9 +35699,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A372" s="28" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>33</v>
@@ -35811,9 +35809,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A373" s="28" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>355</v>
@@ -35837,9 +35835,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="374" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A374" s="28" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>33</v>
@@ -35866,9 +35864,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="375" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A375" s="28" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>33</v>
@@ -35895,9 +35893,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="376" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A376" s="28" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>355</v>
@@ -36002,9 +36000,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A377" s="28" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>33</v>
@@ -36112,9 +36110,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A378" s="28" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>33</v>
@@ -36222,9 +36220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A379" s="28" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>33</v>
@@ -36332,9 +36330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A380" s="28" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>33</v>
@@ -36361,9 +36359,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="381" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A381" s="28" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>33</v>
@@ -36390,9 +36388,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="382" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A382" s="28" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>33</v>
@@ -36500,9 +36498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A383" s="28" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>33</v>
@@ -36610,9 +36608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A384" s="28" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>33</v>
@@ -36720,9 +36718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A385" s="28" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>355</v>
@@ -36746,9 +36744,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="386" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A386" s="28" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>33</v>
@@ -36856,9 +36854,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A387" s="28" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>355</v>
@@ -36882,9 +36880,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="388" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A388" s="28" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>33</v>
@@ -36992,9 +36990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A389" s="28" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>33</v>
@@ -37021,9 +37019,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="390" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A390" s="28" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>33</v>
@@ -37131,9 +37129,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A391" s="28" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>33</v>
@@ -37160,9 +37158,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="392" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A392" s="28" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>33</v>
@@ -37189,9 +37187,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="393" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A393" s="28" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>355</v>
@@ -37215,9 +37213,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="394" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A394" s="28" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>33</v>
@@ -37325,9 +37323,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A395" s="28" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>33</v>
@@ -37435,9 +37433,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A396" s="28" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>33</v>
@@ -37545,9 +37543,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A397" s="28" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>355</v>
@@ -37572,6 +37570,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{F1676CC3-EBBD-4004-9CD3-B826C16778AB}"/>
+    <hyperlink ref="E2" r:id="rId2" location="!s3://allen-genetic-tools/bio_file_finder/STPT/689283_STPT.json" xr:uid="{1660DA4D-9E5D-4586-B46E-4E99FDA970D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37585,47 +37587,47 @@
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.87890625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.41015625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.41015625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="28.29296875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="1.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1171875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.29296875" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.703125" style="28" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="28"/>
+    <col min="21" max="21" width="16.87890625" style="28" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.1171875" style="28"/>
     <col min="26" max="26" width="8" style="28" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" style="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5859375" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.41015625" style="28" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1171875" style="28" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5859375" style="28" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="28" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="1.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="67.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="28"/>
+    <col min="35" max="35" width="1.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="67.703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1171875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -37735,9 +37737,9 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="28" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -37789,9 +37791,9 @@
       </c>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A3" s="28" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>355</v>
@@ -37843,9 +37845,9 @@
       </c>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A4" s="28" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -37897,9 +37899,9 @@
       </c>
       <c r="AJ4" s="30"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A5" s="28" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>33</v>
@@ -37951,9 +37953,9 @@
       </c>
       <c r="AJ5" s="30"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A6" s="28" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
@@ -38005,9 +38007,9 @@
       </c>
       <c r="AJ6" s="30"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A7" s="28" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -38059,9 +38061,9 @@
       </c>
       <c r="AJ7" s="30"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A8" s="28" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -38113,9 +38115,9 @@
       </c>
       <c r="AJ8" s="30"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="28" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -38167,9 +38169,9 @@
       </c>
       <c r="AJ9" s="30"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A10" s="28" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>355</v>
@@ -38221,9 +38223,9 @@
       </c>
       <c r="AJ10" s="30"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="28" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>355</v>
@@ -38275,9 +38277,9 @@
       </c>
       <c r="AJ11" s="30"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="28" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>355</v>
@@ -38329,9 +38331,9 @@
       </c>
       <c r="AJ12" s="30"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="28" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -38383,9 +38385,9 @@
       </c>
       <c r="AJ13" s="30"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A14" s="28" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -38437,9 +38439,9 @@
       </c>
       <c r="AJ14" s="30"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A15" s="28" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
@@ -38491,9 +38493,9 @@
       </c>
       <c r="AJ15" s="30"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A16" s="28" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -38545,9 +38547,9 @@
       </c>
       <c r="AJ16" s="30"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A17" s="28" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
@@ -38599,9 +38601,9 @@
       </c>
       <c r="AJ17" s="30"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A18" s="28" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
@@ -38653,9 +38655,9 @@
       </c>
       <c r="AJ18" s="30"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A19" s="28" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -38707,9 +38709,9 @@
       </c>
       <c r="AJ19" s="30"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A20" s="28" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -38761,9 +38763,9 @@
       </c>
       <c r="AJ20" s="30"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A21" s="28" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
@@ -38815,9 +38817,9 @@
       </c>
       <c r="AJ21" s="30"/>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A22" s="28" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>33</v>
@@ -38869,9 +38871,9 @@
       </c>
       <c r="AJ22" s="30"/>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A23" s="28" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>33</v>
@@ -38923,9 +38925,9 @@
       </c>
       <c r="AJ23" s="30"/>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A24" s="28" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>33</v>
@@ -38977,9 +38979,9 @@
       </c>
       <c r="AJ24" s="30"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A25" s="28" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -39031,9 +39033,9 @@
       </c>
       <c r="AJ25" s="30"/>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A26" s="28" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>33</v>
@@ -39085,9 +39087,9 @@
       </c>
       <c r="AJ26" s="30"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A27" s="28" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>355</v>
@@ -39139,9 +39141,9 @@
       </c>
       <c r="AJ27" s="30"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A28" s="28" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>33</v>
@@ -39193,9 +39195,9 @@
       </c>
       <c r="AJ28" s="30"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A29" s="28" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
@@ -39247,9 +39249,9 @@
       </c>
       <c r="AJ29" s="30"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A30" s="28" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>33</v>
@@ -39301,9 +39303,9 @@
       </c>
       <c r="AJ30" s="30"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A31" s="28" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
@@ -39355,9 +39357,9 @@
       </c>
       <c r="AJ31" s="30"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A32" s="28" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>33</v>
@@ -39409,9 +39411,9 @@
       </c>
       <c r="AJ32" s="30"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A33" s="28" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
@@ -39463,9 +39465,9 @@
       </c>
       <c r="AJ33" s="30"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A34" s="28" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
@@ -39517,9 +39519,9 @@
       </c>
       <c r="AJ34" s="30"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A35" s="28" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
@@ -39571,9 +39573,9 @@
       </c>
       <c r="AJ35" s="30"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A36" s="28" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>355</v>
@@ -39625,9 +39627,9 @@
       </c>
       <c r="AJ36" s="30"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A37" s="28" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>33</v>
@@ -39679,9 +39681,9 @@
       </c>
       <c r="AJ37" s="30"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A38" s="28" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>33</v>
@@ -39733,9 +39735,9 @@
       </c>
       <c r="AJ38" s="30"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A39" s="28" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>33</v>
@@ -39787,9 +39789,9 @@
       </c>
       <c r="AJ39" s="30"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A40" s="28" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>33</v>
@@ -39841,9 +39843,9 @@
       </c>
       <c r="AJ40" s="30"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A41" s="28" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>355</v>
@@ -39895,9 +39897,9 @@
       </c>
       <c r="AJ41" s="30"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A42" s="28" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>33</v>
@@ -39949,9 +39951,9 @@
       </c>
       <c r="AJ42" s="30"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A43" s="28" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
@@ -40003,9 +40005,9 @@
       </c>
       <c r="AJ43" s="30"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A44" s="28" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>33</v>
@@ -40057,9 +40059,9 @@
       </c>
       <c r="AJ44" s="30"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A45" s="28" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>33</v>
@@ -40111,9 +40113,9 @@
       </c>
       <c r="AJ45" s="30"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A46" s="28" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
@@ -40165,9 +40167,9 @@
       </c>
       <c r="AJ46" s="30"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A47" s="28" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>33</v>
@@ -40219,9 +40221,9 @@
       </c>
       <c r="AJ47" s="30"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A48" s="28" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>33</v>
@@ -40273,9 +40275,9 @@
       </c>
       <c r="AJ48" s="30"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A49" s="28" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>33</v>
@@ -40327,9 +40329,9 @@
       </c>
       <c r="AJ49" s="30"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A50" s="28" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>33</v>
@@ -40381,9 +40383,9 @@
       </c>
       <c r="AJ50" s="30"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A51" s="28" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>33</v>
@@ -40435,9 +40437,9 @@
       </c>
       <c r="AJ51" s="30"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A52" s="28" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>33</v>
@@ -40489,9 +40491,9 @@
       </c>
       <c r="AJ52" s="30"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A53" s="28" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>33</v>
@@ -40543,9 +40545,9 @@
       </c>
       <c r="AJ53" s="30"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A54" s="28" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>33</v>
@@ -40597,9 +40599,9 @@
       </c>
       <c r="AJ54" s="30"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A55" s="28" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>33</v>
@@ -40651,9 +40653,9 @@
       </c>
       <c r="AJ55" s="30"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A56" s="28" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>33</v>
@@ -40705,9 +40707,9 @@
       </c>
       <c r="AJ56" s="30"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A57" s="28" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>33</v>
@@ -40759,9 +40761,9 @@
       </c>
       <c r="AJ57" s="30"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A58" s="28" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>33</v>
@@ -40813,9 +40815,9 @@
       </c>
       <c r="AJ58" s="30"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A59" s="28" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>33</v>
@@ -40867,9 +40869,9 @@
       </c>
       <c r="AJ59" s="30"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A60" s="28" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>33</v>
@@ -40921,9 +40923,9 @@
       </c>
       <c r="AJ60" s="30"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A61" s="28" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>33</v>
@@ -40975,9 +40977,9 @@
       </c>
       <c r="AJ61" s="30"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A62" s="28" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>33</v>
@@ -41029,9 +41031,9 @@
       </c>
       <c r="AJ62" s="30"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A63" s="28" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>355</v>
@@ -41083,9 +41085,9 @@
       </c>
       <c r="AJ63" s="30"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A64" s="28" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>33</v>
@@ -41137,9 +41139,9 @@
       </c>
       <c r="AJ64" s="30"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A65" s="28" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>33</v>
@@ -41191,9 +41193,9 @@
       </c>
       <c r="AJ65" s="30"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A66" s="28" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>355</v>
@@ -41245,9 +41247,9 @@
       </c>
       <c r="AJ66" s="30"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A67" s="28" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>33</v>
@@ -41299,9 +41301,9 @@
       </c>
       <c r="AJ67" s="30"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A68" s="28" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>33</v>
@@ -41353,9 +41355,9 @@
       </c>
       <c r="AJ68" s="30"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A69" s="28" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>33</v>
@@ -41407,9 +41409,9 @@
       </c>
       <c r="AJ69" s="30"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A70" s="28" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>33</v>
@@ -41461,9 +41463,9 @@
       </c>
       <c r="AJ70" s="30"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A71" s="28" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>355</v>
@@ -41515,9 +41517,9 @@
       </c>
       <c r="AJ71" s="30"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A72" s="28" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>33</v>
@@ -41569,9 +41571,9 @@
       </c>
       <c r="AJ72" s="30"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A73" s="28" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>33</v>
@@ -41623,9 +41625,9 @@
       </c>
       <c r="AJ73" s="30"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A74" s="28" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>355</v>
@@ -41677,9 +41679,9 @@
       </c>
       <c r="AJ74" s="30"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A75" s="28" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>33</v>
@@ -41731,9 +41733,9 @@
       </c>
       <c r="AJ75" s="30"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A76" s="28" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>33</v>
@@ -41785,9 +41787,9 @@
       </c>
       <c r="AJ76" s="30"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A77" s="28" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>33</v>
@@ -41839,9 +41841,9 @@
       </c>
       <c r="AJ77" s="30"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A78" s="28" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -41893,9 +41895,9 @@
       </c>
       <c r="AJ78" s="30"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A79" s="28" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>33</v>
@@ -41947,9 +41949,9 @@
       </c>
       <c r="AJ79" s="30"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A80" s="28" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>33</v>
@@ -42001,9 +42003,9 @@
       </c>
       <c r="AJ80" s="30"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A81" s="28" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>355</v>
@@ -42055,9 +42057,9 @@
       </c>
       <c r="AJ81" s="30"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A82" s="28" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>33</v>
@@ -42109,9 +42111,9 @@
       </c>
       <c r="AJ82" s="30"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A83" s="28" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>33</v>
@@ -42163,9 +42165,9 @@
       </c>
       <c r="AJ83" s="30"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A84" s="28" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>33</v>
@@ -42217,9 +42219,9 @@
       </c>
       <c r="AJ84" s="30"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A85" s="28" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>33</v>
@@ -42271,9 +42273,9 @@
       </c>
       <c r="AJ85" s="30"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A86" s="28" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>33</v>
@@ -42325,9 +42327,9 @@
       </c>
       <c r="AJ86" s="30"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A87" s="28" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>33</v>
@@ -42379,9 +42381,9 @@
       </c>
       <c r="AJ87" s="30"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A88" s="28" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>355</v>
@@ -42433,9 +42435,9 @@
       </c>
       <c r="AJ88" s="30"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A89" s="28" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>33</v>
@@ -42487,9 +42489,9 @@
       </c>
       <c r="AJ89" s="30"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A90" s="28" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -42541,9 +42543,9 @@
       </c>
       <c r="AJ90" s="30"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A91" s="28" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>33</v>
@@ -42595,9 +42597,9 @@
       </c>
       <c r="AJ91" s="30"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A92" s="28" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>355</v>
@@ -42649,9 +42651,9 @@
       </c>
       <c r="AJ92" s="30"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A93" s="28" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>33</v>
@@ -42703,9 +42705,9 @@
       </c>
       <c r="AJ93" s="30"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A94" s="28" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>33</v>
@@ -42757,9 +42759,9 @@
       </c>
       <c r="AJ94" s="30"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A95" s="28" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>33</v>
@@ -42811,9 +42813,9 @@
       </c>
       <c r="AJ95" s="30"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A96" s="28" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>33</v>
@@ -42865,9 +42867,9 @@
       </c>
       <c r="AJ96" s="30"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A97" s="28" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>355</v>
@@ -42919,9 +42921,9 @@
       </c>
       <c r="AJ97" s="30"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A98" s="28" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>33</v>
@@ -42973,9 +42975,9 @@
       </c>
       <c r="AJ98" s="30"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A99" s="28" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>33</v>
@@ -43027,9 +43029,9 @@
       </c>
       <c r="AJ99" s="30"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A100" s="28" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>33</v>
@@ -43081,7 +43083,7 @@
       </c>
       <c r="AJ100" s="30"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A101" s="28" t="s">
         <v>833</v>
       </c>
